--- a/Индикаторы ОП Программный рейтинг вузов 2021/Индикаторы.xlsx
+++ b/Индикаторы ОП Программный рейтинг вузов 2021/Индикаторы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Индикатор 1</t>
   </si>
@@ -62,53 +62,186 @@
     <t>Число студентов, обучающихся по направлению программ и являющихся победителями на международных научно-практических конференциях и олимпиадах в странах дальнего зарубежья за последний учебный год (1 – 3 места):____________чел.</t>
   </si>
   <si>
-    <t>(предоставить в электронном виде список студентов и подтверждающую ссылку на сайт организаторов конференции/олимпиады или публикации вуза в социальных сетях. Приложение №1.1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Число студентов, обучающихся по направлению программ и являющихся победителями на международных научно-практических конференциях и олимпиадах в Казахстане и странах СНГ за последний учебный год (1 – 3 места):____________чел.
 </t>
   </si>
   <si>
-    <t>(предоставить в электронном виде список студентов и подтверждающую ссылку на сайт организаторов конференции/олимпиады или публикации вуза в социальных сетях. Приложение №1.2)</t>
-  </si>
-  <si>
     <t>Критерий 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Приложение 1.1 Список студентов-победителей по программе обучения на научно-практических конференциях и олимпиадах, проведенных в странах дальнего зарубежья за последний учебный год (1-3 места)
+    <t>Значение</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Приложение 1.1 Список студентов-победителей по программе обучения на научно-практических конференциях и олимпиадах, проведенных в странах дальнего зарубежья за последний учебный год (1-3 места)
 №
 Ф.И.О.
 Образовательная программа
 Курс
-Наименование конференции, олимпиады
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Наименование конференции, олимпиады</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Призовое место
 Дата получения награды
-Место проведения (страна, город)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Место проведения (страна, город)
 Подтверждающая ссылка на сайт (кроме сайта вуза) или соц.сеть, где указаны занятое место и Ф.И.О. студента
-Замечание: При повторе данных (Ф.И.О., телефонов, эл. почты) записи удаляются и не берутся в расчет. Без подтверждающей ссылки результаты не будут учитываться.
+Замечание: При повторе данных (Ф.И.О., телефонов, эл. почты) записи удаляются и не берутся в расчет. Без подтверждающей ссылки результаты не будут учитываться.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Приложение 1.2 Список студентов-победителей по программе обучения на научно-практических конференциях и олимпиадах, проведенных в странах СНГ за последний учебный год (1-3 места)
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Приложение 1.2 Список студентов-победителей по программе обучения на научно-практических конференциях и олимпиадах, проведенных в странах СНГ за последний учебный год (1-3 места)
 №
 Ф.И.О.
 Образовательная программа
-Наименование конференции, олимпиады
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Наименование конференции, олимпиады</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Призовое место
 Дата получения награды
-Место проведения (страна, город)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Место проведения (страна, город)
 Подтверждающая ссылка на сайт (кроме сайта вуза) или соц.сеть, где указаны занятое место и Ф.И.О. студента
 Замечание: При повторе данных (Ф.И.О., телефонов, эл. почты) записи удаляются и не берутся в расчет. Без подтверждающей ссылки результаты не будут учитываться.</t>
-  </si>
-  <si>
-    <t>Значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(предоставить в электронном виде список студентов и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">подтверждающую ссылку на сайт организаторов конференции/олимпиады или публикации вуза в социальных </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сетях. Приложение №1.1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(предоставить в электронном виде список студентов и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>подтверждающую ссылку на сайт организаторов конференции/олимпиады или публикации вуза в социальных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> сетях. Приложение №1.2)</t>
+    </r>
+  </si>
+  <si>
+    <t>(Республиканские и президентские)</t>
+  </si>
+  <si>
+    <t>Невозможно установить место проведения олимпиады</t>
+  </si>
+  <si>
+    <t>У нас нет научных конференций, только конкурс научных проектов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +261,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -483,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,29 +637,30 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="116.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -526,7 +668,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -534,7 +676,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +684,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -551,12 +693,12 @@
         <v>3410.6666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -564,12 +706,12 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -577,38 +719,53 @@
         <v>5057</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="213.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="213.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" ht="188.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="188.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
